--- a/exports/60.xlsx
+++ b/exports/60.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Banque</t>
   </si>
@@ -52,76 +52,52 @@
     <t>Sens</t>
   </si>
   <si>
-    <t>48 123 123</t>
-  </si>
-  <si>
-    <t>ABN 124 AFSL and Your Statement Australian credit license 234945 st ‘atement 10 (Page 1 of 1) Account Number 06 3167 10781391 SOU UU AU Fina mje a</t>
+    <t>01 Jul 2018</t>
+  </si>
+  <si>
+    <t>3 OPENING BALANCE $1,384.89 CR 8 01 Jul DEBIT INTEREST CHARGED on this account to June 30. 2018 is $0.11 8 a 02 Jul Transfer to another Bank NetBank 372.00 $1,012.89 CR © Rob Ubank Transfer 3 Jul Transfer from MCKAY MJ 43.80 51.384 89 CR S Mick Mckay - Neck hackles. 2 &amp; 02 Jul Direct Debit 000115 COLONIAL MUTUAL 25.00 $1.031.69 CR N 1200180874627741 N = 02 Jul Loan Repayment 280.00 $751.69CR S LN REPAY694 259331 8 03 Jul PETSTOCK HEATHMONT P HEATHMONT AUS 32.99 8718.70 CR 3 Card xx4521</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Cr</t>
   </si>
   <si>
-    <t>1 Jul 2018</t>
-  </si>
-  <si>
-    <t>Statement Period - MR R D GEE Closing Balance $ CR 14 STODA ST UE ay HEATHMONT VIC 3135 Enquiries 13 2221 Smart Access Enjoy the convenience and security of withdrawing what you need, when you need it. Plus, you can have your monthly account fee waived if you deposit at least $2,000 each calendar month. Name: ROBERT DAIEL GEE Note: Have you checked your statement today? It's easy to find out more information about each of your transactions by logging on to the CommBank App or NetBank. Should you have any questions on fees or see an error please contact us on the details above. Cheque proceeds are available when cleared. Date Transaction Debit Credit Balance</t>
-  </si>
-  <si>
-    <t>401.22</t>
-  </si>
-  <si>
-    <t>01 Jul 2018</t>
-  </si>
-  <si>
-    <t>OPENING BALANCE $ CR 01 Jul DEBIT INTEREST CHARGED on this account to June 30. 2018 is S0.11 02 Jul Transfer to another Bank NetBank 372.00 $1,012.89 CR Rob Ubank Transfer Jul Transfer from MCKAY MJ 43.80 51.384.89 CR Mick Mckay - Neck hackles. 02 Jul Direct Debit 000115 COLONIAL MUTUAL 25.00 $1.031.69 CR 1200180874627741 02 Jul Loan Repayment 280.00 $751.69 CR LN REPAY694259331 03 Jul PETSTOCK HEATHMONT P HEATHMONT AUS 32.99 $718.70 CR Card xx4521</t>
-  </si>
-  <si>
-    <t>1,384.89</t>
-  </si>
-  <si>
     <t>01/07/2018</t>
   </si>
   <si>
-    <t>Value Date: 03 Jul WOOLWORTHS 3149 EASTLA RINGWOOD AUS $584.44 CR Card xx4521</t>
-  </si>
-  <si>
-    <t>134.26</t>
-  </si>
-  <si>
-    <t>Value Date: 03 Jul HEATHMONT IGA HEATHMONT AUS $554.44 CR Card xx4521</t>
-  </si>
-  <si>
-    <t>30.00</t>
+    <t>&amp; Value Date: Jul WOOLWORTHS 3149 EASTLA RINGWOOD AUS 134.26 $584.44 CR Card xx4521</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Value Date: Jul HEATHMONT IGA HEATHMONT AUS 30.00 $554.44 CR Card xx4521</t>
   </si>
   <si>
     <t>30/06/2018</t>
   </si>
   <si>
-    <t>Value Date: 03 Jul POST HEATHMONT LPOHE HEATHMONT CA AUS 47ST $ CR Card xx4521</t>
-  </si>
-  <si>
-    <t>506.87</t>
+    <t>Value Date: Jul POST HEATHMONT LPOHE HEATHMONT CA AUS AT ST $506.87 CR Card xx4521</t>
   </si>
   <si>
     <t>29/06/2018</t>
   </si>
   <si>
-    <t>Value Date: 03 Jul FIVE STAR MUSIC PL RINGWOOD VI AUS $456.87 CR Card xx4521</t>
-  </si>
-  <si>
-    <t>50.00</t>
+    <t>Value Date: Jul FIVE STAR MUSIC PL RINGWOOD VI AUS 50.00 8456.87 CR Card xx4521</t>
   </si>
   <si>
     <t>28/06/2018</t>
   </si>
   <si>
-    <t>Value Date: 03 Jul POST HEATHMONT LPOHE HEATHMONT CA AUS $401.22 CR Card xx4521</t>
-  </si>
-  <si>
-    <t>55.65</t>
-  </si>
-  <si>
-    <t>Value Date: 2 BY S 8 S s s 2 3 g 8 a = 5 8 8 3 z a 3B 2 s 3 8 2 &amp; &amp; 8 8 N N g s &amp; FS 3 &amp; Fa</t>
+    <t>Value Date: Jul POST HEATHMONT LPOHE HEATHMONT CA AUS 55.65 $401.22 CR Card xx4521</t>
+  </si>
+  <si>
+    <t>Value Date: /18</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -453,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,114 +488,92 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
